--- a/UDP_navrh_hlavicky.xlsx
+++ b/UDP_navrh_hlavicky.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/testfolder/PKS_UDP_kom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BB44A2-FBBB-42A0-8756-688615391B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{76BB44A2-FBBB-42A0-8756-688615391B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBE6579-FDCD-46DE-8465-EB426A88DC8E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B9CB759D-126A-43C7-97B1-F08CC51E13FB}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Message Type</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>32b</t>
-  </si>
-  <si>
-    <t>1B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Checksum</t>
   </si>
@@ -66,6 +54,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Message Type + Flags</t>
   </si>
 </sst>
 </file>
@@ -104,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -179,11 +170,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,9 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -206,10 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,7 +226,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -239,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DEBC1-C962-4CB6-9A68-4BAFFA5F1EC2}">
-  <dimension ref="C2:AK7"/>
+  <dimension ref="C2:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -569,77 +581,85 @@
     <col min="1" max="16384" width="4.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:37" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>1</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1</v>
-      </c>
-      <c r="V2" s="5">
-        <v>1</v>
-      </c>
-      <c r="W2" s="5">
-        <v>2</v>
-      </c>
-      <c r="X2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="5">
-        <v>2</v>
-      </c>
-      <c r="AG2" s="5">
+    <row r="2" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="4">
         <v>3</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:37" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -661,13 +681,13 @@
       <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>7</v>
       </c>
       <c r="K3" s="1">
         <v>8</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="1">
         <v>9</v>
       </c>
       <c r="M3" s="1">
@@ -685,7 +705,7 @@
       <c r="Q3" s="1">
         <v>4</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <v>5</v>
       </c>
       <c r="S3" s="1">
@@ -697,7 +717,7 @@
       <c r="U3" s="1">
         <v>8</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="1">
         <v>9</v>
       </c>
       <c r="W3" s="1">
@@ -709,7 +729,7 @@
       <c r="Y3" s="1">
         <v>2</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="5">
         <v>3</v>
       </c>
       <c r="AA3" s="1">
@@ -727,151 +747,143 @@
       <c r="AE3" s="1">
         <v>8</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="1">
         <v>9</v>
       </c>
       <c r="AG3" s="1">
         <v>0</v>
       </c>
-      <c r="AH3" s="7">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AH3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="10"/>
+    </row>
+    <row r="5" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
     </row>
-    <row r="4" spans="3:37" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="10" t="s">
+    <row r="6" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="10"/>
     </row>
-    <row r="5" spans="3:37" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" spans="3:37" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" spans="3:37" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="S5:AH5"/>
     <mergeCell ref="C6:AH6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:Z4"/>
     <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="C4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UDP_navrh_hlavicky.xlsx
+++ b/UDP_navrh_hlavicky.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/testfolder/PKS_UDP_kom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\OneDrive\Počítač\testfolder\PKS_UDP_kom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{76BB44A2-FBBB-42A0-8756-688615391B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBE6579-FDCD-46DE-8465-EB426A88DC8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B9CB759D-126A-43C7-97B1-F08CC51E13FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Checksum</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Message Type + Flags</t>
+  </si>
+  <si>
+    <t>CRC</t>
   </si>
 </sst>
 </file>
@@ -214,6 +217,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,12 +233,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,10 +250,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DEBC1-C962-4CB6-9A68-4BAFFA5F1EC2}">
-  <dimension ref="C2:AH7"/>
+  <dimension ref="C2:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+      <selection activeCell="C14" sqref="C10:AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -582,16 +581,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
@@ -758,124 +757,425 @@
       </c>
     </row>
     <row r="4" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="12"/>
     </row>
     <row r="5" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
     </row>
     <row r="6" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="12"/>
     </row>
     <row r="7" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
+      <c r="R11" s="5">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>6</v>
+      </c>
+      <c r="T11" s="1">
+        <v>7</v>
+      </c>
+      <c r="U11" s="1">
+        <v>8</v>
+      </c>
+      <c r="V11" s="1">
+        <v>9</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="12"/>
+    </row>
+    <row r="15" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="C14:AH14"/>
+    <mergeCell ref="K13:Z13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:Z12"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="C13:J13"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>

--- a/UDP_navrh_hlavicky.xlsx
+++ b/UDP_navrh_hlavicky.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\OneDrive\Počítač\testfolder\PKS_UDP_kom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/testfolder/PKS_UDP_kom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C487AA-C1FE-4DF4-8B19-901AF401E87F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B9CB759D-126A-43C7-97B1-F08CC51E13FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Checksum</t>
   </si>
@@ -61,6 +61,33 @@
   <si>
     <t>CRC</t>
   </si>
+  <si>
+    <t>CRC16</t>
+  </si>
+  <si>
+    <t>Sprava</t>
+  </si>
+  <si>
+    <t>Subor</t>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+  </si>
+  <si>
+    <t>NACK</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>SYN</t>
+  </si>
+  <si>
+    <t>START_FRAG</t>
+  </si>
+  <si>
+    <t>Rez/Error?</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +121,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,6 +280,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,13 +298,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -241,6 +325,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF4370A"/>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -569,28 +659,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DEBC1-C962-4CB6-9A68-4BAFFA5F1EC2}">
-  <dimension ref="C2:AH15"/>
+  <dimension ref="C2:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C10:AH14"/>
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="4.54296875" style="3"/>
+    <col min="1" max="36" width="4.54296875" style="3"/>
+    <col min="37" max="44" width="12.81640625" style="3" customWidth="1"/>
+    <col min="45" max="16384" width="4.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+    <row r="2" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
@@ -658,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="2">
         <v>0</v>
       </c>
@@ -756,134 +848,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="12"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="9"/>
     </row>
-    <row r="5" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+    <row r="5" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
     </row>
-    <row r="6" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="12"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="9"/>
     </row>
-    <row r="7" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
+    <row r="7" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="3:68" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+    </row>
+    <row r="10" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -950,8 +1052,84 @@
       <c r="AH10" s="4">
         <v>3</v>
       </c>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>2</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>3</v>
+      </c>
+      <c r="BP10" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="2">
         <v>0</v>
       </c>
@@ -1048,126 +1226,656 @@
       <c r="AH11" s="6">
         <v>1</v>
       </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>9</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH11" s="5">
+        <v>3</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>8</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>9</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="12"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="9"/>
+      <c r="AK12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="9"/>
     </row>
-    <row r="13" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10" t="s">
+    <row r="13" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="10" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="12"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="9"/>
+      <c r="AK13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="9"/>
     </row>
-    <row r="14" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="12"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="9"/>
+      <c r="AK14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8"/>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
+      <c r="BA14" s="8"/>
+      <c r="BB14" s="8"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
+      <c r="BH14" s="8"/>
+      <c r="BI14" s="8"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
+      <c r="BO14" s="8"/>
+      <c r="BP14" s="9"/>
     </row>
-    <row r="15" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>1</v>
+      </c>
+      <c r="V18" s="4">
+        <v>1</v>
+      </c>
+      <c r="W18" s="4">
+        <v>2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5">
+        <v>7</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>4</v>
+      </c>
+      <c r="R19" s="5">
+        <v>5</v>
+      </c>
+      <c r="S19" s="1">
+        <v>6</v>
+      </c>
+      <c r="T19" s="1">
+        <v>7</v>
+      </c>
+      <c r="U19" s="1">
+        <v>8</v>
+      </c>
+      <c r="V19" s="1">
+        <v>9</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="21" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="9"/>
+    </row>
+    <row r="22" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="9"/>
+    </row>
+    <row r="23" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="29">
+    <mergeCell ref="AK14:BP14"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="BI12:BP12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="BI13:BP13"/>
+    <mergeCell ref="C22:AH22"/>
+    <mergeCell ref="S20:AH20"/>
+    <mergeCell ref="C20:R20"/>
+    <mergeCell ref="C21:R21"/>
+    <mergeCell ref="S21:AH21"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:AH5"/>
+    <mergeCell ref="C6:AH6"/>
+    <mergeCell ref="K4:Z4"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="C4:J4"/>
     <mergeCell ref="C14:AH14"/>
     <mergeCell ref="K13:Z13"/>
     <mergeCell ref="AA13:AH13"/>
@@ -1176,14 +1884,6 @@
     <mergeCell ref="K12:Z12"/>
     <mergeCell ref="AA12:AH12"/>
     <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:AH5"/>
-    <mergeCell ref="C6:AH6"/>
-    <mergeCell ref="K4:Z4"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="C4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UDP_navrh_hlavicky.xlsx
+++ b/UDP_navrh_hlavicky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/testfolder/PKS_UDP_kom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C487AA-C1FE-4DF4-8B19-901AF401E87F}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2649E5E-5DF0-4590-AB93-306A9571AE2B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B9CB759D-126A-43C7-97B1-F08CC51E13FB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Checksum</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Rez/Error?</t>
+  </si>
+  <si>
+    <t>Signal</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -278,6 +281,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,27 +319,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -327,8 +327,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCC00"/>
       <color rgb="FFF4370A"/>
-      <color rgb="FFFFCC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -340,6 +340,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DEBC1-C962-4CB6-9A68-4BAFFA5F1EC2}">
-  <dimension ref="C2:BP23"/>
+  <dimension ref="C2:BP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="AM22" sqref="AM22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -673,16 +677,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
@@ -849,143 +853,133 @@
       </c>
     </row>
     <row r="4" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="9"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="15"/>
     </row>
     <row r="5" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="C5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
     </row>
     <row r="6" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="9"/>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="15"/>
     </row>
     <row r="7" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="3:68" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-    </row>
     <row r="10" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -1052,16 +1046,16 @@
       <c r="AH10" s="4">
         <v>3</v>
       </c>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="11"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="17"/>
       <c r="AU10" s="4">
         <v>1</v>
       </c>
@@ -1324,550 +1318,853 @@
       </c>
     </row>
     <row r="12" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="9"/>
-      <c r="AK12" s="14" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="15"/>
+      <c r="AK12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AL12" s="14" t="s">
+      <c r="AL12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AM12" s="15" t="s">
+      <c r="AM12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AN12" s="17" t="s">
+      <c r="AN12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO12" s="16" t="s">
+      <c r="AO12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AP12" s="16" t="s">
+      <c r="AP12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AQ12" s="18" t="s">
+      <c r="AQ12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AR12" s="19" t="s">
+      <c r="AR12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AS12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="8"/>
-      <c r="BP12" s="9"/>
+      <c r="AS12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="14"/>
+      <c r="AW12" s="14"/>
+      <c r="AX12" s="14"/>
+      <c r="AY12" s="14"/>
+      <c r="AZ12" s="14"/>
+      <c r="BA12" s="14"/>
+      <c r="BB12" s="14"/>
+      <c r="BC12" s="14"/>
+      <c r="BD12" s="14"/>
+      <c r="BE12" s="14"/>
+      <c r="BF12" s="14"/>
+      <c r="BG12" s="14"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="14"/>
+      <c r="BK12" s="14"/>
+      <c r="BL12" s="14"/>
+      <c r="BM12" s="14"/>
+      <c r="BN12" s="14"/>
+      <c r="BO12" s="14"/>
+      <c r="BP12" s="15"/>
     </row>
     <row r="13" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="7" t="s">
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="9"/>
-      <c r="AK13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-      <c r="BO13" s="8"/>
-      <c r="BP13" s="9"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="15"/>
+      <c r="AK13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13" s="14"/>
+      <c r="AX13" s="14"/>
+      <c r="AY13" s="14"/>
+      <c r="AZ13" s="14"/>
+      <c r="BA13" s="14"/>
+      <c r="BB13" s="14"/>
+      <c r="BC13" s="14"/>
+      <c r="BD13" s="14"/>
+      <c r="BE13" s="14"/>
+      <c r="BF13" s="14"/>
+      <c r="BG13" s="14"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ13" s="14"/>
+      <c r="BK13" s="14"/>
+      <c r="BL13" s="14"/>
+      <c r="BM13" s="14"/>
+      <c r="BN13" s="14"/>
+      <c r="BO13" s="14"/>
+      <c r="BP13" s="15"/>
     </row>
     <row r="14" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="9"/>
-      <c r="AK14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="9"/>
+      <c r="C14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="15"/>
+      <c r="AK14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14" s="14"/>
+      <c r="AX14" s="14"/>
+      <c r="AY14" s="14"/>
+      <c r="AZ14" s="14"/>
+      <c r="BA14" s="14"/>
+      <c r="BB14" s="14"/>
+      <c r="BC14" s="14"/>
+      <c r="BD14" s="14"/>
+      <c r="BE14" s="14"/>
+      <c r="BF14" s="14"/>
+      <c r="BG14" s="14"/>
+      <c r="BH14" s="14"/>
+      <c r="BI14" s="14"/>
+      <c r="BJ14" s="14"/>
+      <c r="BK14" s="14"/>
+      <c r="BL14" s="14"/>
+      <c r="BM14" s="14"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="15"/>
     </row>
     <row r="15" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4">
-        <v>1</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1</v>
-      </c>
-      <c r="P18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4">
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <v>1</v>
-      </c>
-      <c r="U18" s="4">
-        <v>1</v>
-      </c>
-      <c r="V18" s="4">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
-        <v>2</v>
-      </c>
-      <c r="X18" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="4">
-        <v>3</v>
-      </c>
-      <c r="AH18" s="4">
+    <row r="16" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="17"/>
+      <c r="AU16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="BE16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BF16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BH16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BI16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BJ16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BK16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BL16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BM16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BN16" s="4">
+        <v>2</v>
+      </c>
+      <c r="BO16" s="4">
+        <v>3</v>
+      </c>
+      <c r="BP16" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="2">
+    <row r="17" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK17" s="2">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="AL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="1">
         <v>4</v>
       </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="AP17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="1">
         <v>6</v>
       </c>
-      <c r="J19" s="5">
+      <c r="AR17" s="5">
         <v>7</v>
       </c>
-      <c r="K19" s="1">
+      <c r="AS17" s="1">
         <v>8</v>
       </c>
-      <c r="L19" s="1">
+      <c r="AT17" s="1">
         <v>9</v>
       </c>
-      <c r="M19" s="1">
+      <c r="AU17" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="AV17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="1">
         <v>4</v>
       </c>
-      <c r="R19" s="5">
-        <v>5</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="AZ17" s="5">
+        <v>5</v>
+      </c>
+      <c r="BA17" s="1">
         <v>6</v>
       </c>
-      <c r="T19" s="1">
+      <c r="BB17" s="1">
         <v>7</v>
       </c>
-      <c r="U19" s="1">
+      <c r="BC17" s="1">
         <v>8</v>
       </c>
-      <c r="V19" s="1">
+      <c r="BD17" s="1">
         <v>9</v>
       </c>
-      <c r="W19" s="1">
+      <c r="BE17" s="1">
         <v>0</v>
       </c>
-      <c r="X19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>3</v>
-      </c>
-      <c r="AA19" s="1">
+      <c r="BF17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH17" s="5">
+        <v>3</v>
+      </c>
+      <c r="BI17" s="1">
         <v>4</v>
       </c>
-      <c r="AB19" s="1">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="1">
+      <c r="BJ17" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK17" s="1">
         <v>6</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="BL17" s="1">
         <v>7</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="BM17" s="1">
         <v>8</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="BN17" s="1">
         <v>9</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="BO17" s="1">
         <v>0</v>
       </c>
-      <c r="AH19" s="6">
+      <c r="BP17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="7" t="s">
+    <row r="18" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18" s="14"/>
+      <c r="AX18" s="14"/>
+      <c r="AY18" s="14"/>
+      <c r="AZ18" s="14"/>
+      <c r="BA18" s="14"/>
+      <c r="BB18" s="14"/>
+      <c r="BC18" s="14"/>
+      <c r="BD18" s="14"/>
+      <c r="BE18" s="14"/>
+      <c r="BF18" s="14"/>
+      <c r="BG18" s="14"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="14"/>
+      <c r="BK18" s="14"/>
+      <c r="BL18" s="14"/>
+      <c r="BM18" s="14"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="14"/>
+      <c r="BP18" s="15"/>
+    </row>
+    <row r="19" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19" s="14"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="14"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
+      <c r="BP19" s="15"/>
+    </row>
+    <row r="20" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AK20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20" s="14"/>
+      <c r="BA20" s="14"/>
+      <c r="BB20" s="14"/>
+      <c r="BC20" s="14"/>
+      <c r="BD20" s="14"/>
+      <c r="BE20" s="14"/>
+      <c r="BF20" s="14"/>
+      <c r="BG20" s="14"/>
+      <c r="BH20" s="14"/>
+      <c r="BI20" s="14"/>
+      <c r="BJ20" s="14"/>
+      <c r="BK20" s="14"/>
+      <c r="BL20" s="14"/>
+      <c r="BM20" s="14"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="14"/>
+      <c r="BP20" s="15"/>
+    </row>
+    <row r="21" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>1</v>
+      </c>
+      <c r="W23" s="4">
+        <v>2</v>
+      </c>
+      <c r="X23" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1">
         <v>6</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="9"/>
+      <c r="J24" s="5">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
+        <v>9</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>4</v>
+      </c>
+      <c r="R24" s="5">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1">
+        <v>6</v>
+      </c>
+      <c r="T24" s="1">
+        <v>7</v>
+      </c>
+      <c r="U24" s="1">
+        <v>8</v>
+      </c>
+      <c r="V24" s="1">
+        <v>9</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>9</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="7" t="s">
+    <row r="25" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
+    </row>
+    <row r="26" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="9"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="15"/>
     </row>
-    <row r="22" spans="3:34" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="9"/>
+    <row r="27" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="15"/>
     </row>
-    <row r="23" spans="3:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="AK14:BP14"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AS12:BH12"/>
-    <mergeCell ref="BI12:BP12"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AS13:BH13"/>
-    <mergeCell ref="BI13:BP13"/>
-    <mergeCell ref="C22:AH22"/>
-    <mergeCell ref="S20:AH20"/>
-    <mergeCell ref="C20:R20"/>
-    <mergeCell ref="C21:R21"/>
-    <mergeCell ref="S21:AH21"/>
-    <mergeCell ref="C18:L18"/>
+  <mergeCells count="36">
+    <mergeCell ref="AK20:BP20"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="BI18:BP18"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AS19:BH19"/>
+    <mergeCell ref="BI19:BP19"/>
+    <mergeCell ref="C23:L23"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="K5:R5"/>
@@ -1883,7 +2180,18 @@
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="K12:Z12"/>
     <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C27:AH27"/>
+    <mergeCell ref="S25:AH25"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="C26:R26"/>
+    <mergeCell ref="S26:AH26"/>
+    <mergeCell ref="AK14:BP14"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="BI12:BP12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="BI13:BP13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UDP_navrh_hlavicky.xlsx
+++ b/UDP_navrh_hlavicky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb762f2072cc6c8f/Počítač/testfolder/PKS_UDP_kom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2649E5E-5DF0-4590-AB93-306A9571AE2B}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{357B5080-B2ED-434D-984E-463C87D2EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1973C648-5439-49D6-85D9-B085983C129F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B9CB759D-126A-43C7-97B1-F08CC51E13FB}"/>
   </bookViews>
@@ -310,13 +310,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5DEBC1-C962-4CB6-9A68-4BAFFA5F1EC2}">
   <dimension ref="C2:BP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="AM22" sqref="AM22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.54296875" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -677,16 +677,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="4">
         <v>1</v>
       </c>
@@ -893,44 +893,44 @@
       <c r="AH4" s="15"/>
     </row>
     <row r="5" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="13" t="s">
@@ -970,16 +970,16 @@
     </row>
     <row r="7" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="4">
         <v>1</v>
       </c>
@@ -1046,16 +1046,16 @@
       <c r="AH10" s="4">
         <v>3</v>
       </c>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="16"/>
-      <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="18"/>
       <c r="AU10" s="4">
         <v>1</v>
       </c>
@@ -1410,16 +1410,16 @@
       <c r="BP12" s="15"/>
     </row>
     <row r="13" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="C13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1448,16 +1448,16 @@
       <c r="AF13" s="14"/>
       <c r="AG13" s="14"/>
       <c r="AH13" s="15"/>
-      <c r="AK13" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
+      <c r="AK13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
       <c r="AS13" s="13" t="s">
         <v>8</v>
       </c>
@@ -1559,16 +1559,16 @@
     </row>
     <row r="15" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-      <c r="AP16" s="16"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="16"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="17"/>
+      <c r="AP16" s="17"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AT16" s="18"/>
       <c r="AU16" s="4">
         <v>1</v>
       </c>
@@ -1751,10 +1751,10 @@
         <v>12</v>
       </c>
       <c r="AP18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ18" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="AQ18" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="AR18" s="11" t="s">
         <v>15</v>
@@ -1789,16 +1789,16 @@
       <c r="BP18" s="15"/>
     </row>
     <row r="19" spans="3:68" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AK19" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL19" s="18"/>
-      <c r="AM19" s="18"/>
-      <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
-      <c r="AP19" s="18"/>
-      <c r="AQ19" s="18"/>
-      <c r="AR19" s="18"/>
+      <c r="AK19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" s="16"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="16"/>
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+      <c r="AR19" s="16"/>
       <c r="AS19" s="13" t="s">
         <v>8</v>
       </c>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="21" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="3:68" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="4">
         <v>1</v>
       </c>
@@ -2156,14 +2156,17 @@
     <row r="28" spans="3:68" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AK20:BP20"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AS18:BH18"/>
-    <mergeCell ref="BI18:BP18"/>
-    <mergeCell ref="AK19:AR19"/>
-    <mergeCell ref="AS19:BH19"/>
-    <mergeCell ref="BI19:BP19"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="BI12:BP12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="BI13:BP13"/>
+    <mergeCell ref="C27:AH27"/>
+    <mergeCell ref="S25:AH25"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="C26:R26"/>
+    <mergeCell ref="S26:AH26"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C5:J5"/>
@@ -2180,18 +2183,15 @@
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="K12:Z12"/>
     <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="C27:AH27"/>
-    <mergeCell ref="S25:AH25"/>
-    <mergeCell ref="C25:R25"/>
-    <mergeCell ref="C26:R26"/>
-    <mergeCell ref="S26:AH26"/>
+    <mergeCell ref="AK20:BP20"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="BI18:BP18"/>
+    <mergeCell ref="AK19:AR19"/>
+    <mergeCell ref="AS19:BH19"/>
+    <mergeCell ref="BI19:BP19"/>
     <mergeCell ref="AK14:BP14"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AS12:BH12"/>
-    <mergeCell ref="BI12:BP12"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AS13:BH13"/>
-    <mergeCell ref="BI13:BP13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
